--- a/sample_output/marksheet/1401ME63.xlsx
+++ b/sample_output/marksheet/1401ME63.xlsx
@@ -19,18 +19,18 @@
   <numFmts count="0"/>
   <fonts count="6">
     <font>
-      <name val="Calibri"/>
+      <name val="Times"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Times"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>-1</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>-4</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
